--- a/data/개선코드표.xlsx
+++ b/data/개선코드표.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5901" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5901" uniqueCount="880">
   <si>
     <t>항목명</t>
   </si>
@@ -2647,6 +2647,12 @@
   </si>
   <si>
     <t>sh_full_FinancialLiabilities_Noncurrent</t>
+  </si>
+  <si>
+    <t>퇴직급여운용자산/퇴직연금운용자산(부채)</t>
+  </si>
+  <si>
+    <t>퇴직보험예치금(부채)</t>
   </si>
   <si>
     <t>최상위라벨</t>
@@ -2660,7 +2666,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="165" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -2686,6 +2692,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2701,7 +2714,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2728,6 +2741,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14098,7 +14117,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="16.13"/>
     <col customWidth="1" min="2" max="2" width="35.25"/>
-    <col customWidth="1" min="3" max="3" width="7.88"/>
+    <col customWidth="1" min="3" max="3" width="15.38"/>
     <col customWidth="1" min="4" max="4" width="9.63"/>
     <col customWidth="1" min="5" max="5" width="11.38"/>
     <col customWidth="1" min="6" max="26" width="7.63"/>
@@ -14249,7 +14268,7 @@
       <c r="D9" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="9" t="s">
         <v>866</v>
       </c>
     </row>
@@ -21739,8 +21758,8 @@
       <c r="C464" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D464" s="2" t="s">
-        <v>464</v>
+      <c r="D464" s="10" t="s">
+        <v>877</v>
       </c>
       <c r="E464" s="4" t="s">
         <v>753</v>
@@ -21756,8 +21775,8 @@
       <c r="C465" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D465" s="2" t="s">
-        <v>466</v>
+      <c r="D465" s="10" t="s">
+        <v>878</v>
       </c>
       <c r="E465" s="4" t="s">
         <v>754</v>
@@ -25997,7 +26016,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
